--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cntf-Il6ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cntf-Il6ra.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.306379666666667</v>
+        <v>0.08830399999999999</v>
       </c>
       <c r="H2">
-        <v>3.919139</v>
+        <v>0.264912</v>
       </c>
       <c r="I2">
-        <v>0.4034923136874173</v>
+        <v>0.04372337970871547</v>
       </c>
       <c r="J2">
-        <v>0.4034923136874172</v>
+        <v>0.04372337970871546</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.39487933333333</v>
+        <v>0.9317853333333334</v>
       </c>
       <c r="N2">
-        <v>43.184638</v>
+        <v>2.795356</v>
       </c>
       <c r="O2">
-        <v>0.6893176795959761</v>
+        <v>0.1255826100074751</v>
       </c>
       <c r="P2">
-        <v>0.6893176795959762</v>
+        <v>0.1255826100074751</v>
       </c>
       <c r="Q2">
-        <v>18.80517766518689</v>
+        <v>0.08228037207466667</v>
       </c>
       <c r="R2">
-        <v>169.246598986682</v>
+        <v>0.740523348672</v>
       </c>
       <c r="S2">
-        <v>0.2781343854058222</v>
+        <v>0.005490896142168367</v>
       </c>
       <c r="T2">
-        <v>0.2781343854058222</v>
+        <v>0.005490896142168366</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.306379666666667</v>
+        <v>0.08830399999999999</v>
       </c>
       <c r="H3">
-        <v>3.919139</v>
+        <v>0.264912</v>
       </c>
       <c r="I3">
-        <v>0.4034923136874173</v>
+        <v>0.04372337970871547</v>
       </c>
       <c r="J3">
-        <v>0.4034923136874172</v>
+        <v>0.04372337970871546</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>16.578157</v>
       </c>
       <c r="O3">
-        <v>0.264622264871545</v>
+        <v>0.7447810673036616</v>
       </c>
       <c r="P3">
-        <v>0.2646222648715451</v>
+        <v>0.7447810673036616</v>
       </c>
       <c r="Q3">
-        <v>7.219122405202556</v>
+        <v>0.4879725252426667</v>
       </c>
       <c r="R3">
-        <v>64.97210164682301</v>
+        <v>4.391752727184</v>
       </c>
       <c r="S3">
-        <v>0.1067730499062243</v>
+        <v>0.03256434540558036</v>
       </c>
       <c r="T3">
-        <v>0.1067730499062243</v>
+        <v>0.03256434540558036</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.306379666666667</v>
+        <v>0.08830399999999999</v>
       </c>
       <c r="H4">
-        <v>3.919139</v>
+        <v>0.264912</v>
       </c>
       <c r="I4">
-        <v>0.4034923136874173</v>
+        <v>0.04372337970871547</v>
       </c>
       <c r="J4">
-        <v>0.4034923136874172</v>
+        <v>0.04372337970871546</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9618626666666668</v>
+        <v>0.9618626666666666</v>
       </c>
       <c r="N4">
         <v>2.885588</v>
       </c>
       <c r="O4">
-        <v>0.04606005553247879</v>
+        <v>0.1296363226888633</v>
       </c>
       <c r="P4">
-        <v>0.04606005553247879</v>
+        <v>0.1296363226888633</v>
       </c>
       <c r="Q4">
-        <v>1.256557829859111</v>
+        <v>0.08493632091733333</v>
       </c>
       <c r="R4">
-        <v>11.309020468732</v>
+        <v>0.7644268882559999</v>
       </c>
       <c r="S4">
-        <v>0.01858487837537079</v>
+        <v>0.005668138160966736</v>
       </c>
       <c r="T4">
-        <v>0.01858487837537079</v>
+        <v>0.005668138160966735</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.217686</v>
       </c>
       <c r="I5">
-        <v>0.3312746929515923</v>
+        <v>0.5310748730197871</v>
       </c>
       <c r="J5">
-        <v>0.3312746929515923</v>
+        <v>0.531074873019787</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.39487933333333</v>
+        <v>0.9317853333333334</v>
       </c>
       <c r="N5">
-        <v>43.184638</v>
+        <v>2.795356</v>
       </c>
       <c r="O5">
-        <v>0.6893176795959761</v>
+        <v>0.1255826100074751</v>
       </c>
       <c r="P5">
-        <v>0.6893176795959762</v>
+        <v>0.1255826100074751</v>
       </c>
       <c r="Q5">
-        <v>15.43940056751866</v>
+        <v>0.9993975406906664</v>
       </c>
       <c r="R5">
-        <v>138.954605107668</v>
+        <v>8.994577866215998</v>
       </c>
       <c r="S5">
-        <v>0.2283535026542611</v>
+        <v>0.0666937686632133</v>
       </c>
       <c r="T5">
-        <v>0.2283535026542611</v>
+        <v>0.06669376866321329</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.217686</v>
       </c>
       <c r="I6">
-        <v>0.3312746929515923</v>
+        <v>0.5310748730197871</v>
       </c>
       <c r="J6">
-        <v>0.3312746929515923</v>
+        <v>0.531074873019787</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>16.578157</v>
       </c>
       <c r="O6">
-        <v>0.264622264871545</v>
+        <v>0.7447810673036616</v>
       </c>
       <c r="P6">
-        <v>0.2646222648715451</v>
+        <v>0.7447810673036616</v>
       </c>
       <c r="Q6">
         <v>5.927033742744666</v>
@@ -818,10 +818,10 @@
         <v>53.34330368470199</v>
       </c>
       <c r="S6">
-        <v>0.087662659543476</v>
+        <v>0.3955345107458336</v>
       </c>
       <c r="T6">
-        <v>0.08766265954347605</v>
+        <v>0.3955345107458335</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.217686</v>
       </c>
       <c r="I7">
-        <v>0.3312746929515923</v>
+        <v>0.5310748730197871</v>
       </c>
       <c r="J7">
-        <v>0.3312746929515923</v>
+        <v>0.531074873019787</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9618626666666668</v>
+        <v>0.9618626666666666</v>
       </c>
       <c r="N7">
         <v>2.885588</v>
       </c>
       <c r="O7">
-        <v>0.04606005553247879</v>
+        <v>0.1296363226888633</v>
       </c>
       <c r="P7">
-        <v>0.04606005553247879</v>
+        <v>0.1296363226888633</v>
       </c>
       <c r="Q7">
         <v>1.031657345485333</v>
       </c>
       <c r="R7">
-        <v>9.284916109368</v>
+        <v>9.284916109367998</v>
       </c>
       <c r="S7">
-        <v>0.0152585307538552</v>
+        <v>0.06884659361074022</v>
       </c>
       <c r="T7">
-        <v>0.01525853075385521</v>
+        <v>0.06884659361074021</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>2.57622</v>
       </c>
       <c r="I8">
-        <v>0.2652329933609903</v>
+        <v>0.4252017472714976</v>
       </c>
       <c r="J8">
-        <v>0.2652329933609903</v>
+        <v>0.4252017472714976</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.39487933333333</v>
+        <v>0.9317853333333334</v>
       </c>
       <c r="N8">
-        <v>43.184638</v>
+        <v>2.795356</v>
       </c>
       <c r="O8">
-        <v>0.6893176795959761</v>
+        <v>0.1255826100074751</v>
       </c>
       <c r="P8">
-        <v>0.6893176795959762</v>
+        <v>0.1255826100074751</v>
       </c>
       <c r="Q8">
-        <v>12.36145867870667</v>
+        <v>0.8001613371466667</v>
       </c>
       <c r="R8">
-        <v>111.25312810836</v>
+        <v>7.201452034320001</v>
       </c>
       <c r="S8">
-        <v>0.1828297915358928</v>
+        <v>0.0533979452020935</v>
       </c>
       <c r="T8">
-        <v>0.1828297915358928</v>
+        <v>0.05339794520209349</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>2.57622</v>
       </c>
       <c r="I9">
-        <v>0.2652329933609903</v>
+        <v>0.4252017472714976</v>
       </c>
       <c r="J9">
-        <v>0.2652329933609903</v>
+        <v>0.4252017472714976</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>16.578157</v>
       </c>
       <c r="O9">
-        <v>0.264622264871545</v>
+        <v>0.7447810673036616</v>
       </c>
       <c r="P9">
-        <v>0.2646222648715451</v>
+        <v>0.7447810673036616</v>
       </c>
       <c r="Q9">
         <v>4.745442180726667</v>
@@ -1004,10 +1004,10 @@
         <v>42.70897962654001</v>
       </c>
       <c r="S9">
-        <v>0.07018655542184472</v>
+        <v>0.3166822111522478</v>
       </c>
       <c r="T9">
-        <v>0.07018655542184474</v>
+        <v>0.3166822111522477</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>2.57622</v>
       </c>
       <c r="I10">
-        <v>0.2652329933609903</v>
+        <v>0.4252017472714976</v>
       </c>
       <c r="J10">
-        <v>0.2652329933609903</v>
+        <v>0.4252017472714976</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9618626666666668</v>
+        <v>0.9618626666666666</v>
       </c>
       <c r="N10">
         <v>2.885588</v>
       </c>
       <c r="O10">
-        <v>0.04606005553247879</v>
+        <v>0.1296363226888633</v>
       </c>
       <c r="P10">
-        <v>0.04606005553247879</v>
+        <v>0.1296363226888633</v>
       </c>
       <c r="Q10">
-        <v>0.8259899463733335</v>
+        <v>0.8259899463733333</v>
       </c>
       <c r="R10">
-        <v>7.433909517360001</v>
+        <v>7.43390951736</v>
       </c>
       <c r="S10">
-        <v>0.01221664640325279</v>
+        <v>0.05512159091715636</v>
       </c>
       <c r="T10">
-        <v>0.01221664640325279</v>
+        <v>0.05512159091715636</v>
       </c>
     </row>
   </sheetData>
